--- a/LoanOfficer-A/2023/23 Loanee-Mona -.xlsx
+++ b/LoanOfficer-A/2023/23 Loanee-Mona -.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3:P12"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>12000</v>
+        <v>11300</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -873,9 +873,15 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="3">
+        <v>45339</v>
+      </c>
+      <c r="C3" s="4">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3" s="1">
         <v>31</v>
       </c>
@@ -899,9 +905,15 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="3">
+        <v>45339</v>
+      </c>
+      <c r="C4" s="4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4" s="1">
         <v>32</v>
       </c>
@@ -925,9 +937,15 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="3">
+        <v>45339</v>
+      </c>
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="1">
         <v>33</v>
       </c>
@@ -951,9 +969,15 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="3">
+        <v>45339</v>
+      </c>
+      <c r="C6" s="4">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="1">
         <v>34</v>
       </c>
@@ -977,9 +1001,15 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="3">
+        <v>45339</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1">
         <v>35</v>
       </c>
@@ -1003,9 +1033,15 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="3">
+        <v>45339</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="1">
         <v>36</v>
       </c>
@@ -1029,9 +1065,15 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="3">
+        <v>45339</v>
+      </c>
+      <c r="C9" s="4">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1">
         <v>37</v>
       </c>

--- a/LoanOfficer-A/2023/23 Loanee-Mona -.xlsx
+++ b/LoanOfficer-A/2023/23 Loanee-Mona -.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>11300</v>
+        <v>10600</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1097,9 +1097,15 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="3">
+        <v>45340</v>
+      </c>
+      <c r="C10" s="4">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1">
         <v>38</v>
       </c>
@@ -1123,9 +1129,15 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="3">
+        <v>45340</v>
+      </c>
+      <c r="C11" s="4">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1">
         <v>39</v>
       </c>
@@ -1149,9 +1161,15 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="3">
+        <v>45341</v>
+      </c>
+      <c r="C12" s="4">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
       <c r="E12" s="1">
         <v>40</v>
       </c>
@@ -1175,9 +1193,15 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="3">
+        <v>45342</v>
+      </c>
+      <c r="C13" s="4">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1">
         <v>41</v>
       </c>
@@ -1201,9 +1225,15 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="3">
+        <v>45342</v>
+      </c>
+      <c r="C14" s="4">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1">
         <v>42</v>
       </c>
@@ -1227,9 +1257,15 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="3">
+        <v>45344</v>
+      </c>
+      <c r="C15" s="4">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1">
         <v>43</v>
       </c>
@@ -1253,9 +1289,15 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="3">
+        <v>45346</v>
+      </c>
+      <c r="C16" s="4">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
       <c r="E16" s="1">
         <v>44</v>
       </c>

--- a/LoanOfficer-A/2023/23 Loanee-Mona -.xlsx
+++ b/LoanOfficer-A/2023/23 Loanee-Mona -.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>10600</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1321,9 +1321,15 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="3">
+        <v>45347</v>
+      </c>
+      <c r="C17" s="4">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
       <c r="E17" s="1">
         <v>45</v>
       </c>
@@ -1347,9 +1353,15 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="3">
+        <v>45348</v>
+      </c>
+      <c r="C18" s="4">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
       <c r="E18" s="1">
         <v>46</v>
       </c>
@@ -1373,9 +1385,15 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="3">
+        <v>45348</v>
+      </c>
+      <c r="C19" s="4">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
       <c r="E19" s="1">
         <v>47</v>
       </c>
@@ -1399,9 +1417,15 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="3">
+        <v>45350</v>
+      </c>
+      <c r="C20" s="4">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
       <c r="E20" s="1">
         <v>48</v>
       </c>
@@ -1425,9 +1449,15 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="3">
+        <v>45351</v>
+      </c>
+      <c r="C21" s="4">
+        <v>100</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
       <c r="E21" s="1">
         <v>49</v>
       </c>
@@ -1451,9 +1481,15 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="3">
+        <v>45352</v>
+      </c>
+      <c r="C22" s="4">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
       <c r="E22" s="1">
         <v>50</v>
       </c>

--- a/LoanOfficer-A/2023/23 Loanee-Mona -.xlsx
+++ b/LoanOfficer-A/2023/23 Loanee-Mona -.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20:D22"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -885,9 +885,15 @@
       <c r="E3" s="1">
         <v>31</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="3">
+        <v>45367</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
       <c r="I3" s="1">
         <v>61</v>
       </c>
@@ -917,9 +923,15 @@
       <c r="E4" s="1">
         <v>32</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="3">
+        <v>45368</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
       <c r="I4" s="1">
         <v>62</v>
       </c>
@@ -949,9 +961,15 @@
       <c r="E5" s="1">
         <v>33</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="3">
+        <v>45368</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
       <c r="I5" s="1">
         <v>63</v>
       </c>
@@ -981,9 +999,15 @@
       <c r="E6" s="1">
         <v>34</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="3">
+        <v>45372</v>
+      </c>
+      <c r="G6" s="4">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6" s="1">
         <v>64</v>
       </c>
@@ -1013,9 +1037,15 @@
       <c r="E7" s="1">
         <v>35</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
+      <c r="F7" s="3">
+        <v>45372</v>
+      </c>
+      <c r="G7" s="4">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
       <c r="I7" s="1">
         <v>65</v>
       </c>
@@ -1513,9 +1543,15 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="3">
+        <v>45362</v>
+      </c>
+      <c r="C23" s="4">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
       <c r="E23" s="1">
         <v>51</v>
       </c>
@@ -1539,9 +1575,15 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="3">
+        <v>45362</v>
+      </c>
+      <c r="C24" s="4">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
       <c r="E24" s="1">
         <v>52</v>
       </c>
@@ -1565,9 +1607,15 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="1"/>
+      <c r="B25" s="3">
+        <v>45362</v>
+      </c>
+      <c r="C25" s="4">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
       <c r="E25" s="1">
         <v>53</v>
       </c>
@@ -1591,9 +1639,15 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="3">
+        <v>45364</v>
+      </c>
+      <c r="C26" s="4">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
       <c r="E26" s="1">
         <v>54</v>
       </c>
@@ -1617,9 +1671,15 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="3">
+        <v>45364</v>
+      </c>
+      <c r="C27" s="4">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
       <c r="E27" s="1">
         <v>55</v>
       </c>
@@ -1643,9 +1703,15 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="3">
+        <v>45364</v>
+      </c>
+      <c r="C28" s="4">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
       <c r="E28" s="1">
         <v>56</v>
       </c>
@@ -1669,9 +1735,15 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="3">
+        <v>45364</v>
+      </c>
+      <c r="C29" s="4">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
       <c r="E29" s="1">
         <v>57</v>
       </c>
@@ -1695,9 +1767,15 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="3">
+        <v>45364</v>
+      </c>
+      <c r="C30" s="4">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
       <c r="E30" s="1">
         <v>58</v>
       </c>
@@ -1721,9 +1799,15 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="3">
+        <v>45365</v>
+      </c>
+      <c r="C31" s="4">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
       <c r="E31" s="1">
         <v>59</v>
       </c>
@@ -1747,9 +1831,15 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="3">
+        <v>45366</v>
+      </c>
+      <c r="C32" s="4">
+        <v>100</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
       <c r="E32" s="1">
         <v>60</v>
       </c>
